--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25.93423235287581</v>
+      </c>
+      <c r="C2">
+        <v>19.43902380346189</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30.49393960931781</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>2.020797120647402</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>34.20424421763417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>24.01853005512989</v>
+      </c>
+      <c r="C3">
+        <v>18.03298534124684</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28.11431135745607</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.036419515048955</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>32.10047223803969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>22.79197332353031</v>
+      </c>
+      <c r="C4">
+        <v>17.13481316131472</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>26.60599384196148</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.046060857645119</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.80898811774493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>22.27896156139765</v>
+      </c>
+      <c r="C5">
+        <v>16.7596097881613</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>25.97846372869854</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.050011061914786</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.28253809714304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22.19296602466994</v>
+      </c>
+      <c r="C6">
+        <v>16.69674110292916</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.87345820467253</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.050668513602277</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.19510935009316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.78510868688086</v>
+      </c>
+      <c r="C7">
+        <v>17.12979077146757</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>26.59758412487306</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.0461140344088</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.80188901510708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>25.28379919434843</v>
+      </c>
+      <c r="C8">
+        <v>18.9611810966469</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>29.6825911022732</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>2.026179308585676</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>33.47861261701934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>29.81270192571849</v>
+      </c>
+      <c r="C9">
+        <v>22.29897030915837</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>35.41241909200762</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>1.986993249245717</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.75261085473662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>32.96215165982786</v>
+      </c>
+      <c r="C10">
+        <v>24.63680616977558</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>39.52392206489183</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847369</v>
+      </c>
+      <c r="G10">
+        <v>1.957299438754707</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>43.00918685386747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>34.37073467470466</v>
+      </c>
+      <c r="C11">
+        <v>25.68773872101351</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>41.40320913310649</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.1480572223286</v>
+      </c>
+      <c r="G11">
+        <v>1.943335570227056</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>45.00650268228002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>34.90228555629438</v>
+      </c>
+      <c r="C12">
+        <v>26.08528661275367</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>42.11964247193711</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>1.937952677569176</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>45.76826053441005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>34.78785791468177</v>
+      </c>
+      <c r="C13">
+        <v>25.99965949152714</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>41.96506483118857</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.56266403258223</v>
+      </c>
+      <c r="G13">
+        <v>1.939116774351704</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>45.603905163048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>34.4144917942126</v>
+      </c>
+      <c r="C14">
+        <v>25.72044415370797</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>41.46203052099387</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503956</v>
+      </c>
+      <c r="G14">
+        <v>1.942894822446495</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>45.06904447324783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>34.18560941522765</v>
+      </c>
+      <c r="C15">
+        <v>25.54941053829087</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>41.15465377467812</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154518</v>
+      </c>
+      <c r="G15">
+        <v>1.945195579729242</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>44.74223398652074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>32.86974055952987</v>
+      </c>
+      <c r="C16">
+        <v>24.56798236288981</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>39.40156179927479</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1.958200500410986</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>42.87923826679818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>32.05733983016343</v>
+      </c>
+      <c r="C17">
+        <v>23.96356134379422</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>38.33056385918214</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>1.96604331236043</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>41.7426426870909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>31.58768002843136</v>
+      </c>
+      <c r="C18">
+        <v>23.61463000737691</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>37.71513604919652</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1.970513538993486</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>41.09034223350855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>31.42820867418923</v>
+      </c>
+      <c r="C19">
+        <v>23.49623108621167</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>37.50677244991761</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494157628</v>
+      </c>
+      <c r="G19">
+        <v>1.972020850344756</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.86965776013693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>32.14405813258796</v>
+      </c>
+      <c r="C20">
+        <v>24.02802709723698</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>38.44449115220442</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731402</v>
+      </c>
+      <c r="G20">
+        <v>1.96521283665543</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>41.86346817726625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>34.52419341755233</v>
+      </c>
+      <c r="C21">
+        <v>25.80245465982113</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>41.60962046364049</v>
+      </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1.941787977644962</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>45.2259712794959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>36.07010185670526</v>
+      </c>
+      <c r="C22">
+        <v>26.96069252925888</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>43.70865789146991</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>1.925903472067942</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>47.45723639995273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>35.24523677573521</v>
+      </c>
+      <c r="C23">
+        <v>26.34207574157861</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>42.58410188378197</v>
+      </c>
       <c r="F23">
-        <v>40.01414225038425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038423</v>
+      </c>
+      <c r="G23">
+        <v>1.934446188530515</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>46.26206734365315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>32.10486100139183</v>
+      </c>
+      <c r="C24">
+        <v>23.99888671937697</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>38.39298392689111</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575583</v>
+      </c>
+      <c r="G24">
+        <v>1.965588413194996</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>41.80883961600647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>28.62283346130118</v>
+      </c>
+      <c r="C25">
+        <v>21.41952514433286</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>33.88791424828131</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459127059</v>
+      </c>
+      <c r="G25">
+        <v>1.997680594170059</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.31877297296524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.93423235287581</v>
+        <v>20.64683381601451</v>
       </c>
       <c r="C2">
-        <v>19.43902380346189</v>
+        <v>14.77222216105887</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.49393960931781</v>
+        <v>15.74997766787453</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>28.35751903227225</v>
       </c>
       <c r="G2">
-        <v>2.020797120647402</v>
+        <v>2.066511174635508</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.970564479572886</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.502536080841054</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.64003022100228</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>34.20424421763417</v>
+        <v>11.7950526320402</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.01853005512989</v>
+        <v>19.33775347198606</v>
       </c>
       <c r="C3">
-        <v>18.03298534124684</v>
+        <v>13.88624558609096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.11431135745607</v>
+        <v>15.23078599286708</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>27.46287509536476</v>
       </c>
       <c r="G3">
-        <v>2.036419515048955</v>
+        <v>2.071864731981887</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.36975955925815</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.560823021624585</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.57643497622891</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.10047223803969</v>
+        <v>11.85142961900142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79197332353031</v>
+        <v>18.48822448209642</v>
       </c>
       <c r="C4">
-        <v>17.13481316131472</v>
+        <v>13.31312886253186</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.60599384196148</v>
+        <v>14.9127661813062</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>26.9304119273504</v>
       </c>
       <c r="G4">
-        <v>2.046060857645119</v>
+        <v>2.075245117538242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.62584183399711</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.597635450470934</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.89474741574299</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.80898811774493</v>
+        <v>11.90654385028846</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.27896156139765</v>
+        <v>18.1305319937312</v>
       </c>
       <c r="C5">
-        <v>16.7596097881613</v>
+        <v>13.0723058659437</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.97846372869854</v>
+        <v>14.78352478070546</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.71789567685441</v>
       </c>
       <c r="G5">
-        <v>2.050011061914786</v>
+        <v>2.076646802157209</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.73284863451201</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.612900367967366</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.60995438677429</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.28253809714304</v>
+        <v>11.93384932924285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.19296602466994</v>
+        <v>18.07044309457877</v>
       </c>
       <c r="C6">
-        <v>16.69674110292916</v>
+        <v>13.03187999421298</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.87345820467253</v>
+        <v>14.76209067797194</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.68288390935021</v>
       </c>
       <c r="G6">
-        <v>2.050668513602277</v>
+        <v>2.076881029073841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.75077440298458</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.615451186532451</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.56224880444726</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.19510935009316</v>
+        <v>11.93866710028444</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78510868688086</v>
+        <v>18.48344707502928</v>
       </c>
       <c r="C7">
-        <v>17.12979077146757</v>
+        <v>13.30991040679551</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.59758412487306</v>
+        <v>14.91102153045157</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.92752747284035</v>
       </c>
       <c r="G7">
-        <v>2.0461140344088</v>
+        <v>2.07526392247102</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.62727435774794</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.597840243519661</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.89093463747673</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.80188901510708</v>
+        <v>11.90689288617061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.28379919434843</v>
+        <v>20.20495333473924</v>
       </c>
       <c r="C8">
-        <v>18.9611810966469</v>
+        <v>14.47280559950404</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.6825911022732</v>
+        <v>15.57089466492364</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>28.04568610303772</v>
       </c>
       <c r="G8">
-        <v>2.026179308585676</v>
+        <v>2.068338150372834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.10585640386327</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.522424613522242</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.27935161442097</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.47861261701934</v>
+        <v>11.81005097982968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81270192571849</v>
+        <v>23.21864720717563</v>
       </c>
       <c r="C9">
-        <v>22.29897030915837</v>
+        <v>16.52097715316072</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.41241909200762</v>
+        <v>16.86456883066224</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>30.36223244946043</v>
       </c>
       <c r="G9">
-        <v>1.986993249245717</v>
+        <v>2.055463480694897</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.176759456833377</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.382371594178782</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.76832262835781</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.75261085473662</v>
+        <v>11.79651730126483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96215165982786</v>
+        <v>25.21415152282365</v>
       </c>
       <c r="C10">
-        <v>24.63680616977558</v>
+        <v>17.88378749690579</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.52392206489183</v>
+        <v>17.80739812089039</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>32.12752310532495</v>
       </c>
       <c r="G10">
-        <v>1.957299438754707</v>
+        <v>2.046385602783254</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8.562739309289077</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.283828826269052</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.57795077662871</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>43.00918685386747</v>
+        <v>11.91236737931164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.37073467470466</v>
+        <v>26.07516145545727</v>
       </c>
       <c r="C11">
-        <v>25.68773872101351</v>
+        <v>18.47312559687681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.40320913310649</v>
+        <v>18.23344574662958</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>32.94222880885689</v>
       </c>
       <c r="G11">
-        <v>1.943335570227056</v>
+        <v>2.042326721871424</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.301959652802296</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.239845903936891</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.38501619268581</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>45.00650268228002</v>
+        <v>11.99604759534376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.90228555629438</v>
+        <v>26.39454599886297</v>
       </c>
       <c r="C12">
-        <v>26.08528661275367</v>
+        <v>18.69191883980178</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.11964247193711</v>
+        <v>18.39429279470128</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>33.25227695425548</v>
       </c>
       <c r="G12">
-        <v>1.937952677569176</v>
+        <v>2.040798835745675</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.206284873436335</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.223303623357191</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.68448894324892</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>45.76826053441005</v>
+        <v>12.03246534861639</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.78785791468177</v>
+        <v>26.32605600939058</v>
       </c>
       <c r="C13">
-        <v>25.99965949152714</v>
+        <v>18.64499193356878</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.96506483118857</v>
+        <v>18.3596742392476</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>33.18543604011585</v>
       </c>
       <c r="G13">
-        <v>1.939116774351704</v>
+        <v>2.041127505013461</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.226745707841918</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.226861407821117</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.62026392547122</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>45.603905163048</v>
+        <v>12.02440763812987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.4144917942126</v>
+        <v>26.10157053107274</v>
       </c>
       <c r="C14">
-        <v>25.72044415370797</v>
+        <v>18.49121337745897</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.46203052099387</v>
+        <v>18.24668888621251</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>32.96770653324327</v>
       </c>
       <c r="G14">
-        <v>1.942894822446495</v>
+        <v>2.042200845153153</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.294024064092566</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.238482743558106</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.40977661347576</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>45.06904447324783</v>
+        <v>11.99894741847907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.18560941522765</v>
+        <v>25.96320118375721</v>
       </c>
       <c r="C15">
-        <v>25.54941053829087</v>
+        <v>18.39645056230945</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.15465377467812</v>
+        <v>18.17741656980359</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>32.83453750093891</v>
       </c>
       <c r="G15">
-        <v>1.945195579729242</v>
+        <v>2.042859452922965</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.33564854849762</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.245615619399327</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23.28004956434684</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>44.74223398652074</v>
+        <v>11.9839760405557</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.86974055952987</v>
+        <v>25.15694679115797</v>
       </c>
       <c r="C16">
-        <v>24.56798236288981</v>
+        <v>17.84465886228414</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.40156179927479</v>
+        <v>17.77949042996579</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>32.07450206914194</v>
       </c>
       <c r="G16">
-        <v>1.958200500410986</v>
+        <v>2.046652195466925</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>8.58018790203279</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.28671950647205</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.52434206047388</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>42.87923826679818</v>
+        <v>11.90754609178788</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.05733983016343</v>
+        <v>24.650402350636</v>
       </c>
       <c r="C17">
-        <v>23.96356134379422</v>
+        <v>17.49832746463612</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.33056385918214</v>
+        <v>17.53458386250133</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>31.61112152793682</v>
       </c>
       <c r="G17">
-        <v>1.96604331236043</v>
+        <v>2.048996309580822</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>8.735216496695889</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.312145948798038</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>22.04969406068227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>41.7426426870909</v>
+        <v>11.86879607683667</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.58768002843136</v>
+        <v>24.3546463379987</v>
       </c>
       <c r="C18">
-        <v>23.61463000737691</v>
+        <v>17.29624338290908</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.71513604919652</v>
+        <v>17.3934552593648</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>31.34570169224585</v>
       </c>
       <c r="G18">
-        <v>1.970513538993486</v>
+        <v>2.050351302675138</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>8.826100251651599</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.326850599488309</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.77260037486227</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>41.09034223350855</v>
+        <v>11.84940885847363</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.42820867418923</v>
+        <v>24.25375010386236</v>
       </c>
       <c r="C19">
-        <v>23.49623108621167</v>
+        <v>17.22732532941725</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.50677244991761</v>
+        <v>17.34562875636178</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>31.25602965059472</v>
       </c>
       <c r="G19">
-        <v>1.972020850344756</v>
+        <v>2.050811264786622</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.857155570856806</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.331843334562269</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.67807624132372</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40.86965776013693</v>
+        <v>11.84333414274772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.14405813258796</v>
+        <v>24.70478035252733</v>
       </c>
       <c r="C20">
-        <v>24.02802709723698</v>
+        <v>17.53549330062034</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.44449115220442</v>
+        <v>17.56068262109256</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>31.66033601150207</v>
       </c>
       <c r="G20">
-        <v>1.96521283665543</v>
+        <v>2.04874608636204</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8.718533229443175</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.309431036519809</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.10064366349229</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>41.86346817726625</v>
+        <v>11.87261879942977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.52419341755233</v>
+        <v>26.16768760715399</v>
       </c>
       <c r="C21">
-        <v>25.80245465982113</v>
+        <v>18.53650038969135</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.60962046364049</v>
+        <v>18.27988919018605</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>33.03161819993441</v>
       </c>
       <c r="G21">
-        <v>1.941787977644962</v>
+        <v>2.041885340211906</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.274175514083634</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.235066275190384</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.47176786444318</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>45.2259712794959</v>
+        <v>12.00629525686859</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.07010185670526</v>
+        <v>27.08498968196701</v>
       </c>
       <c r="C22">
-        <v>26.96069252925888</v>
+        <v>19.16522609917949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.70865789146991</v>
+        <v>18.74706601884063</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>33.93674940362767</v>
       </c>
       <c r="G22">
-        <v>1.925903472067942</v>
+        <v>2.037454085016178</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.001961233317875</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.187119588141944</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.33210304183208</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>47.45723639995273</v>
+        <v>12.12134054470753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.24523677573521</v>
+        <v>26.59893524510243</v>
       </c>
       <c r="C23">
-        <v>26.34207574157861</v>
+        <v>18.83198494341095</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.58410188378197</v>
+        <v>18.498007878242</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>33.45288459148367</v>
       </c>
       <c r="G23">
-        <v>1.934446188530515</v>
+        <v>2.039814678272764</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.145419607815398</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.212652598332626</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.87616749641507</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>46.26206734365315</v>
+        <v>12.05732120362067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.10486100139183</v>
+        <v>24.68021019380471</v>
       </c>
       <c r="C24">
-        <v>23.99888671937697</v>
+        <v>17.51869988993839</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.39298392689111</v>
+        <v>17.54888438954297</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>31.63808306796948</v>
       </c>
       <c r="G24">
-        <v>1.965588413194996</v>
+        <v>2.048859189368272</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8.726070295503128</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.310658177837573</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.07762247513202</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>41.80883961600647</v>
+        <v>11.87088156386796</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.62283346130118</v>
+        <v>22.44195988900209</v>
       </c>
       <c r="C25">
-        <v>21.41952514433286</v>
+        <v>15.99185148452747</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.88791424828131</v>
+        <v>16.51546246539053</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>29.72361185263403</v>
       </c>
       <c r="G25">
-        <v>1.997680594170059</v>
+        <v>2.058875692340953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.417080203038648</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.419463077664272</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.12075517204081</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.31877297296524</v>
+        <v>11.77937667045839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.64683381601451</v>
+        <v>12.48608613848814</v>
       </c>
       <c r="C2">
-        <v>14.77222216105887</v>
+        <v>8.814538854320366</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.74997766787453</v>
+        <v>21.82773851148199</v>
       </c>
       <c r="F2">
-        <v>28.35751903227225</v>
+        <v>37.46172020787205</v>
       </c>
       <c r="G2">
-        <v>2.066511174635508</v>
+        <v>3.611554555625247</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.970564479572886</v>
+        <v>18.00890376160695</v>
       </c>
       <c r="J2">
-        <v>4.502536080841054</v>
+        <v>7.587886992288661</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.64003022100228</v>
+        <v>19.38967581523424</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.7950526320402</v>
+        <v>18.98200087479208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33775347198606</v>
+        <v>11.82612156877964</v>
       </c>
       <c r="C3">
-        <v>13.88624558609096</v>
+        <v>8.329607497461636</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.23078599286708</v>
+        <v>21.79157096143352</v>
       </c>
       <c r="F3">
-        <v>27.46287509536476</v>
+        <v>37.46203259756178</v>
       </c>
       <c r="G3">
-        <v>2.071864731981887</v>
+        <v>3.613523555236858</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.36975955925815</v>
+        <v>18.16207663472052</v>
       </c>
       <c r="J3">
-        <v>4.560823021624585</v>
+        <v>7.608300620032479</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.57643497622891</v>
+        <v>19.12769792378552</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.85142961900142</v>
+        <v>19.09758433813116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48822448209642</v>
+        <v>11.40123874880114</v>
       </c>
       <c r="C4">
-        <v>13.31312886253186</v>
+        <v>8.015638822159712</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.9127661813062</v>
+        <v>21.77337713718551</v>
       </c>
       <c r="F4">
-        <v>26.9304119273504</v>
+        <v>37.47361663186551</v>
       </c>
       <c r="G4">
-        <v>2.075245117538242</v>
+        <v>3.614795528525732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.62584183399711</v>
+        <v>18.26117053013564</v>
       </c>
       <c r="J4">
-        <v>4.597635450470934</v>
+        <v>7.621493058583279</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.89474741574299</v>
+        <v>18.96732399825024</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.90654385028846</v>
+        <v>19.17469531113005</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1305319937312</v>
+        <v>11.2233042509979</v>
       </c>
       <c r="C5">
-        <v>13.0723058659437</v>
+        <v>7.883682204362522</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.78352478070546</v>
+        <v>21.76697690964499</v>
       </c>
       <c r="F5">
-        <v>26.71789567685441</v>
+        <v>37.48119787061782</v>
       </c>
       <c r="G5">
-        <v>2.076646802157209</v>
+        <v>3.615329760455043</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.73284863451201</v>
+        <v>18.30282209105937</v>
       </c>
       <c r="J5">
-        <v>4.612900367967366</v>
+        <v>7.627035134838913</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.60995438677429</v>
+        <v>18.90215940323822</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.93384932924285</v>
+        <v>19.20765619323754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07044309457877</v>
+        <v>11.19347403096262</v>
       </c>
       <c r="C6">
-        <v>13.03187999421298</v>
+        <v>7.861530844577456</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.76209067797194</v>
+        <v>21.76597551825019</v>
       </c>
       <c r="F6">
-        <v>26.68288390935021</v>
+        <v>37.4826293460133</v>
       </c>
       <c r="G6">
-        <v>2.076881029073841</v>
+        <v>3.615419430619366</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.75077440298458</v>
+        <v>18.3098150468513</v>
       </c>
       <c r="J6">
-        <v>4.615451186532451</v>
+        <v>7.627965435935493</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.56224880444726</v>
+        <v>18.89135227871805</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.93866710028444</v>
+        <v>19.21322198229094</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.48344707502928</v>
+        <v>11.39885823818236</v>
       </c>
       <c r="C7">
-        <v>13.30991040679551</v>
+        <v>8.013875353994209</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.91102153045157</v>
+        <v>21.77328671051905</v>
       </c>
       <c r="F7">
-        <v>26.92752747284035</v>
+        <v>37.47370729940781</v>
       </c>
       <c r="G7">
-        <v>2.07526392247102</v>
+        <v>3.614802668948993</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.62727435774794</v>
+        <v>18.26172711366804</v>
       </c>
       <c r="J7">
-        <v>4.597840243519661</v>
+        <v>7.621567127979338</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.89093463747673</v>
+        <v>18.966444310341</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.90689288617061</v>
+        <v>19.17513361693708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.20495333473924</v>
+        <v>12.26269413550617</v>
       </c>
       <c r="C8">
-        <v>14.47280559950404</v>
+        <v>8.650736236453902</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.57089466492364</v>
+        <v>21.81443806772554</v>
       </c>
       <c r="F8">
-        <v>28.04568610303772</v>
+        <v>37.45946169094329</v>
       </c>
       <c r="G8">
-        <v>2.068338150372834</v>
+        <v>3.612220421739792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.10585640386327</v>
+        <v>18.06067145540155</v>
       </c>
       <c r="J8">
-        <v>4.522424613522242</v>
+        <v>7.594789260069976</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.27935161442097</v>
+        <v>19.29928664320772</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.81005097982968</v>
+        <v>19.02057502058906</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.21864720717563</v>
+        <v>13.79530319051759</v>
       </c>
       <c r="C9">
-        <v>16.52097715316072</v>
+        <v>9.768687994035789</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.86456883066224</v>
+        <v>21.92674001225093</v>
       </c>
       <c r="F9">
-        <v>30.36223244946043</v>
+        <v>37.52200221372652</v>
       </c>
       <c r="G9">
-        <v>2.055463480694897</v>
+        <v>3.607654194761944</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.176759456833377</v>
+        <v>17.70637116744006</v>
       </c>
       <c r="J9">
-        <v>4.382371594178782</v>
+        <v>7.547479389903843</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.76832262835781</v>
+        <v>19.95283888714672</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.79651730126483</v>
+        <v>18.76653526962286</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.21415152282365</v>
+        <v>14.81732008779304</v>
       </c>
       <c r="C10">
-        <v>17.88378749690579</v>
+        <v>10.50800019918054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80739812089039</v>
+        <v>22.02815206648078</v>
       </c>
       <c r="F10">
-        <v>32.12752310532495</v>
+        <v>37.62308213386603</v>
       </c>
       <c r="G10">
-        <v>2.046385602783254</v>
+        <v>3.604599450414921</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.562739309289077</v>
+        <v>17.47034765335539</v>
       </c>
       <c r="J10">
-        <v>4.283828826269052</v>
+        <v>7.515860088937876</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.57795077662871</v>
+        <v>20.42959349730621</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.91236737931164</v>
+        <v>18.61022343283244</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.07516145545727</v>
+        <v>15.25885820249275</v>
       </c>
       <c r="C11">
-        <v>18.47312559687681</v>
+        <v>10.82621996453286</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.23344574662958</v>
+        <v>22.07829931659368</v>
       </c>
       <c r="F11">
-        <v>32.94222880885689</v>
+        <v>37.6809835411832</v>
       </c>
       <c r="G11">
-        <v>2.042326721871424</v>
+        <v>3.603274229676375</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.301959652802296</v>
+        <v>17.3682305882783</v>
       </c>
       <c r="J11">
-        <v>4.239845903936891</v>
+        <v>7.502150578307067</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.38501619268581</v>
+        <v>20.64493185646186</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.99604759534376</v>
+        <v>18.54579189910114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.39454599886297</v>
+        <v>15.42264422198605</v>
       </c>
       <c r="C12">
-        <v>18.69191883980178</v>
+        <v>10.94410244115853</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.39429279470128</v>
+        <v>22.09785698091482</v>
       </c>
       <c r="F12">
-        <v>33.25227695425548</v>
+        <v>37.70461482467299</v>
       </c>
       <c r="G12">
-        <v>2.040798835745675</v>
+        <v>3.602781610841402</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.206284873436335</v>
+        <v>17.33031578150297</v>
       </c>
       <c r="J12">
-        <v>4.223303623357191</v>
+        <v>7.497055596405843</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.68448894324892</v>
+        <v>20.72618810107729</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.03246534861639</v>
+        <v>18.52236102146159</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.32605600939058</v>
+        <v>15.38752256646262</v>
       </c>
       <c r="C13">
-        <v>18.64499193356878</v>
+        <v>10.918831119084</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.3596742392476</v>
+        <v>22.09361978164906</v>
       </c>
       <c r="F13">
-        <v>33.18543604011585</v>
+        <v>37.69944972704211</v>
       </c>
       <c r="G13">
-        <v>2.041127505013461</v>
+        <v>3.602887296090869</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.226745707841918</v>
+        <v>17.33844785272449</v>
       </c>
       <c r="J13">
-        <v>4.226861407821117</v>
+        <v>7.498148606578344</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.62026392547122</v>
+        <v>20.70870194403145</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.02440763812987</v>
+        <v>18.52736410292984</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.10157053107274</v>
+        <v>15.27240167677814</v>
       </c>
       <c r="C14">
-        <v>18.49121337745897</v>
+        <v>10.83597082971602</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.24668888621251</v>
+        <v>22.07989700968546</v>
       </c>
       <c r="F14">
-        <v>32.96770653324327</v>
+        <v>37.68289358342628</v>
       </c>
       <c r="G14">
-        <v>2.042200845153153</v>
+        <v>3.603233517243228</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.294024064092566</v>
+        <v>17.365096190681</v>
       </c>
       <c r="J14">
-        <v>4.238482743558106</v>
+        <v>7.501729479374504</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.40977661347576</v>
+        <v>20.65162299504794</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.99894741847907</v>
+        <v>18.54384478171595</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.96320118375721</v>
+        <v>15.20144072530891</v>
       </c>
       <c r="C15">
-        <v>18.39645056230945</v>
+        <v>10.78487480259237</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.17741656980359</v>
+        <v>22.07156509727364</v>
       </c>
       <c r="F15">
-        <v>32.83453750093891</v>
+        <v>37.67297424429317</v>
       </c>
       <c r="G15">
-        <v>2.042859452922965</v>
+        <v>3.603446786181239</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.33564854849762</v>
+        <v>17.38151734268565</v>
       </c>
       <c r="J15">
-        <v>4.245615619399327</v>
+        <v>7.503935422914992</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.28004956434684</v>
+        <v>20.61662108995996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.9839760405557</v>
+        <v>18.55406596632681</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.15694679115797</v>
+        <v>14.78798926399493</v>
       </c>
       <c r="C16">
-        <v>17.84465886228414</v>
+        <v>10.48683796038046</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.77949042996579</v>
+        <v>22.02495482883153</v>
       </c>
       <c r="F16">
-        <v>32.07450206914194</v>
+        <v>37.61953730081235</v>
       </c>
       <c r="G16">
-        <v>2.046652195466925</v>
+        <v>3.604687348544975</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.58018790203279</v>
+        <v>17.47712687368285</v>
       </c>
       <c r="J16">
-        <v>4.28671950647205</v>
+        <v>7.516769567414778</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.52434206047388</v>
+        <v>20.41548392953328</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.90754609178788</v>
+        <v>18.61456919859809</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.650402350636</v>
+        <v>14.52832024709637</v>
       </c>
       <c r="C17">
-        <v>17.49832746463612</v>
+        <v>10.29935230977935</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.53458386250133</v>
+        <v>21.99738274730674</v>
       </c>
       <c r="F17">
-        <v>31.61112152793682</v>
+        <v>37.58980290607699</v>
       </c>
       <c r="G17">
-        <v>2.048996309580822</v>
+        <v>3.605464853766228</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.735216496695889</v>
+        <v>17.53712485464174</v>
       </c>
       <c r="J17">
-        <v>4.312145948798038</v>
+        <v>7.524815276421918</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.04969406068227</v>
+        <v>20.29165059846443</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.86879607683667</v>
+        <v>18.65340143249264</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.3546463379987</v>
+        <v>14.37676694862275</v>
       </c>
       <c r="C18">
-        <v>17.29624338290908</v>
+        <v>10.18981284669437</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.3934552593648</v>
+        <v>21.98190247009149</v>
       </c>
       <c r="F18">
-        <v>31.34570169224585</v>
+        <v>37.57382307837128</v>
       </c>
       <c r="G18">
-        <v>2.050351302675138</v>
+        <v>3.605918118406919</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.826100251651599</v>
+        <v>17.5721283920115</v>
       </c>
       <c r="J18">
-        <v>4.326850599488309</v>
+        <v>7.529506447150569</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.77260037486227</v>
+        <v>20.22028385872778</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.84940885847363</v>
+        <v>18.67636455663924</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.25375010386236</v>
+        <v>14.32507779512528</v>
       </c>
       <c r="C19">
-        <v>17.22732532941725</v>
+        <v>10.15243287032542</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.34562875636178</v>
+        <v>21.97672638527946</v>
       </c>
       <c r="F19">
-        <v>31.25602965059472</v>
+        <v>37.56860562014417</v>
       </c>
       <c r="G19">
-        <v>2.050811264786622</v>
+        <v>3.606072628991382</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.857155570856806</v>
+        <v>17.58406489696635</v>
       </c>
       <c r="J19">
-        <v>4.331843334562269</v>
+        <v>7.531105715402591</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.67807624132372</v>
+        <v>20.19609813069402</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.84333414274772</v>
+        <v>18.68424706559113</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.70478035252733</v>
+        <v>14.5561904154802</v>
       </c>
       <c r="C20">
-        <v>17.53549330062034</v>
+        <v>10.31948684572211</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.56068262109256</v>
+        <v>22.00027873874493</v>
       </c>
       <c r="F20">
-        <v>31.66033601150207</v>
+        <v>37.59285205303449</v>
       </c>
       <c r="G20">
-        <v>2.04874608636204</v>
+        <v>3.605381459725839</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.718533229443175</v>
+        <v>17.53068681377838</v>
       </c>
       <c r="J20">
-        <v>4.309431036519809</v>
+        <v>7.523952229052782</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.10064366349229</v>
+        <v>20.30484795659474</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.87261879942977</v>
+        <v>18.64920263664881</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.16768760715399</v>
+        <v>15.30630851394956</v>
       </c>
       <c r="C21">
-        <v>18.53650038969135</v>
+        <v>10.86038014194727</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.27988919018605</v>
+        <v>22.08391238279598</v>
       </c>
       <c r="F21">
-        <v>33.03161819993441</v>
+        <v>37.68771032498935</v>
       </c>
       <c r="G21">
-        <v>2.041885340211906</v>
+        <v>3.603131574017922</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.274175514083634</v>
+        <v>17.3572484478657</v>
       </c>
       <c r="J21">
-        <v>4.235066275190384</v>
+        <v>7.500675074456891</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.47176786444318</v>
+        <v>20.66839679231228</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.00629525686859</v>
+        <v>18.53897767321523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.08498968196701</v>
+        <v>15.77663274986985</v>
       </c>
       <c r="C22">
-        <v>19.16522609917949</v>
+        <v>11.1986063040255</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.74706601884063</v>
+        <v>22.14187768735516</v>
       </c>
       <c r="F22">
-        <v>33.93674940362767</v>
+        <v>37.75963961068038</v>
       </c>
       <c r="G22">
-        <v>2.037454085016178</v>
+        <v>3.60171482547037</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.001961233317875</v>
+        <v>17.24829537875308</v>
       </c>
       <c r="J22">
-        <v>4.187119588141944</v>
+        <v>7.486024451224098</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.33210304183208</v>
+        <v>20.90429074573629</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.12134054470753</v>
+        <v>18.47258493132148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.59893524510243</v>
+        <v>15.52744916115489</v>
       </c>
       <c r="C23">
-        <v>18.83198494341095</v>
+        <v>11.01949133813798</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.498007878242</v>
+        <v>22.11064126906272</v>
       </c>
       <c r="F23">
-        <v>33.45288459148367</v>
+        <v>37.72034414982273</v>
       </c>
       <c r="G23">
-        <v>2.039814678272764</v>
+        <v>3.602466074328156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.145419607815398</v>
+        <v>17.30604328085225</v>
       </c>
       <c r="J23">
-        <v>4.212652598332626</v>
+        <v>7.493792456654111</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.87616749641507</v>
+        <v>20.77856716010966</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.05732120362067</v>
+        <v>18.5075007633862</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.68021019380471</v>
+        <v>14.5435973667416</v>
       </c>
       <c r="C24">
-        <v>17.51869988993839</v>
+        <v>10.31038947608678</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.54888438954297</v>
+        <v>21.99896830379236</v>
       </c>
       <c r="F24">
-        <v>31.63808306796948</v>
+        <v>37.59147006025657</v>
       </c>
       <c r="G24">
-        <v>2.048859189368272</v>
+        <v>3.605419142647833</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.726070295503128</v>
+        <v>17.5335958636621</v>
       </c>
       <c r="J24">
-        <v>4.310658177837573</v>
+        <v>7.524342208430074</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.07762247513202</v>
+        <v>20.29888196571502</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.87088156386796</v>
+        <v>18.65109892561653</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44195988900209</v>
+        <v>13.39862276858874</v>
       </c>
       <c r="C25">
-        <v>15.99185148452747</v>
+        <v>9.480535659224648</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.51546246539053</v>
+        <v>21.89301039956489</v>
       </c>
       <c r="F25">
-        <v>29.72361185263403</v>
+        <v>37.49539064393046</v>
       </c>
       <c r="G25">
-        <v>2.058875692340953</v>
+        <v>3.608836551850973</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.417080203038648</v>
+        <v>17.79794904768518</v>
       </c>
       <c r="J25">
-        <v>4.419463077664272</v>
+        <v>7.559724402982244</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.12075517204081</v>
+        <v>19.77635446864871</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.77937667045839</v>
+        <v>18.82996445958117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48608613848814</v>
+        <v>20.64683381601452</v>
       </c>
       <c r="C2">
-        <v>8.814538854320366</v>
+        <v>14.77222216105877</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.82773851148199</v>
+        <v>15.7499776678745</v>
       </c>
       <c r="F2">
-        <v>37.46172020787205</v>
+        <v>28.3575190322723</v>
       </c>
       <c r="G2">
-        <v>3.611554555625247</v>
+        <v>2.066511174635375</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.00890376160695</v>
+        <v>9.970564479572937</v>
       </c>
       <c r="J2">
-        <v>7.587886992288661</v>
+        <v>4.502536080840986</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.38967581523424</v>
+        <v>18.64003022100227</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.98200087479208</v>
+        <v>11.79505263204024</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.82612156877964</v>
+        <v>19.33775347198611</v>
       </c>
       <c r="C3">
-        <v>8.329607497461636</v>
+        <v>13.88624558609096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.79157096143352</v>
+        <v>15.23078599286715</v>
       </c>
       <c r="F3">
-        <v>37.46203259756178</v>
+        <v>27.46287509536485</v>
       </c>
       <c r="G3">
-        <v>3.613523555236858</v>
+        <v>2.071864731981753</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.16207663472052</v>
+        <v>10.36975955925817</v>
       </c>
       <c r="J3">
-        <v>7.608300620032479</v>
+        <v>4.56082302162465</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.12769792378552</v>
+        <v>17.57643497622893</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.09758433813116</v>
+        <v>11.8514296190014</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.40123874880114</v>
+        <v>18.48822448209642</v>
       </c>
       <c r="C4">
-        <v>8.015638822159712</v>
+        <v>13.31312886253184</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.77337713718551</v>
+        <v>14.91276618130619</v>
       </c>
       <c r="F4">
-        <v>37.47361663186551</v>
+        <v>26.93041192735048</v>
       </c>
       <c r="G4">
-        <v>3.614795528525732</v>
+        <v>2.075245117538242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.26117053013564</v>
+        <v>10.62584183399727</v>
       </c>
       <c r="J4">
-        <v>7.621493058583279</v>
+        <v>4.597635450471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.96732399825024</v>
+        <v>16.89474741574298</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.17469531113005</v>
+        <v>11.90654385028861</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2233042509979</v>
+        <v>18.13053199373127</v>
       </c>
       <c r="C5">
-        <v>7.883682204362522</v>
+        <v>13.07230586594363</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.76697690964499</v>
+        <v>14.78352478070551</v>
       </c>
       <c r="F5">
-        <v>37.48119787061782</v>
+        <v>26.71789567685442</v>
       </c>
       <c r="G5">
-        <v>3.615329760455043</v>
+        <v>2.076646802156941</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.30282209105937</v>
+        <v>10.73284863451182</v>
       </c>
       <c r="J5">
-        <v>7.627035134838913</v>
+        <v>4.612900367967231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.90215940323822</v>
+        <v>16.60995438677429</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.20765619323754</v>
+        <v>11.93384932924272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.19347403096262</v>
+        <v>18.07044309457884</v>
       </c>
       <c r="C6">
-        <v>7.861530844577456</v>
+        <v>13.03187999421293</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.76597551825019</v>
+        <v>14.76209067797202</v>
       </c>
       <c r="F6">
-        <v>37.4826293460133</v>
+        <v>26.68288390935023</v>
       </c>
       <c r="G6">
-        <v>3.615419430619366</v>
+        <v>2.076881029073975</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.3098150468513</v>
+        <v>10.75077440298458</v>
       </c>
       <c r="J6">
-        <v>7.627965435935493</v>
+        <v>4.615451186532417</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.89135227871805</v>
+        <v>16.56224880444727</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.21322198229094</v>
+        <v>11.93866710028445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39885823818236</v>
+        <v>18.48344707502924</v>
       </c>
       <c r="C7">
-        <v>8.013875353994209</v>
+        <v>13.30991040679549</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.77328671051905</v>
+        <v>14.91102153045152</v>
       </c>
       <c r="F7">
-        <v>37.47370729940781</v>
+        <v>26.9275274728403</v>
       </c>
       <c r="G7">
-        <v>3.614802668948993</v>
+        <v>2.075263922471154</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.26172711366804</v>
+        <v>10.62727435774794</v>
       </c>
       <c r="J7">
-        <v>7.621567127979338</v>
+        <v>4.59784024351963</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.966444310341</v>
+        <v>16.89093463747673</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.17513361693708</v>
+        <v>11.90689288617059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.26269413550617</v>
+        <v>20.20495333473928</v>
       </c>
       <c r="C8">
-        <v>8.650736236453902</v>
+        <v>14.47280559950398</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.81443806772554</v>
+        <v>15.5708946649237</v>
       </c>
       <c r="F8">
-        <v>37.45946169094329</v>
+        <v>28.04568610303772</v>
       </c>
       <c r="G8">
-        <v>3.612220421739792</v>
+        <v>2.068338150372834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.06067145540155</v>
+        <v>10.10585640386309</v>
       </c>
       <c r="J8">
-        <v>7.594789260069976</v>
+        <v>4.522424613522242</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.29928664320772</v>
+        <v>18.27935161442103</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.02057502058906</v>
+        <v>11.81005097982958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.79530319051759</v>
+        <v>23.21864720717562</v>
       </c>
       <c r="C9">
-        <v>9.768687994035789</v>
+        <v>16.52097715316074</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.92674001225093</v>
+        <v>16.86456883066225</v>
       </c>
       <c r="F9">
-        <v>37.52200221372652</v>
+        <v>30.36223244946044</v>
       </c>
       <c r="G9">
-        <v>3.607654194761944</v>
+        <v>2.055463480694897</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.70637116744006</v>
+        <v>9.176759456833336</v>
       </c>
       <c r="J9">
-        <v>7.547479389903843</v>
+        <v>4.382371594178848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.95283888714672</v>
+        <v>20.7683226283578</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.76653526962286</v>
+        <v>11.79651730126485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.81732008779304</v>
+        <v>25.21415152282362</v>
       </c>
       <c r="C10">
-        <v>10.50800019918054</v>
+        <v>17.88378749690569</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.02815206648078</v>
+        <v>17.80739812089037</v>
       </c>
       <c r="F10">
-        <v>37.62308213386603</v>
+        <v>32.127523105325</v>
       </c>
       <c r="G10">
-        <v>3.604599450414921</v>
+        <v>2.046385602783388</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.47034765335539</v>
+        <v>8.562739309289118</v>
       </c>
       <c r="J10">
-        <v>7.515860088937876</v>
+        <v>4.283828826268951</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.42959349730621</v>
+        <v>22.5779507766287</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.61022343283244</v>
+        <v>11.91236737931171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.25885820249275</v>
+        <v>26.07516145545733</v>
       </c>
       <c r="C11">
-        <v>10.82621996453286</v>
+        <v>18.47312559687672</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.07829931659368</v>
+        <v>18.2334457466296</v>
       </c>
       <c r="F11">
-        <v>37.6809835411832</v>
+        <v>32.94222880885695</v>
       </c>
       <c r="G11">
-        <v>3.603274229676375</v>
+        <v>2.042326721871424</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.3682305882783</v>
+        <v>8.301959652802326</v>
       </c>
       <c r="J11">
-        <v>7.502150578307067</v>
+        <v>4.239845903936825</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.64493185646186</v>
+        <v>23.38501619268577</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.54579189910114</v>
+        <v>11.99604759534385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.42264422198605</v>
+        <v>26.39454599886297</v>
       </c>
       <c r="C12">
-        <v>10.94410244115853</v>
+        <v>18.69191883980172</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.09785698091482</v>
+        <v>18.39429279470126</v>
       </c>
       <c r="F12">
-        <v>37.70461482467299</v>
+        <v>33.25227695425551</v>
       </c>
       <c r="G12">
-        <v>3.602781610841402</v>
+        <v>2.040798835745809</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.33031578150297</v>
+        <v>8.206284873436372</v>
       </c>
       <c r="J12">
-        <v>7.497055596405843</v>
+        <v>4.223303623357223</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.72618810107729</v>
+        <v>23.68448894324889</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.52236102146159</v>
+        <v>12.03246534861649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.38752256646262</v>
+        <v>26.3260560093906</v>
       </c>
       <c r="C13">
-        <v>10.918831119084</v>
+        <v>18.64499193356874</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.09361978164906</v>
+        <v>18.35967423924755</v>
       </c>
       <c r="F13">
-        <v>37.69944972704211</v>
+        <v>33.18543604011586</v>
       </c>
       <c r="G13">
-        <v>3.602887296090869</v>
+        <v>2.041127505013459</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.33844785272449</v>
+        <v>8.22674570784185</v>
       </c>
       <c r="J13">
-        <v>7.498148606578344</v>
+        <v>4.226861407821048</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.70870194403145</v>
+        <v>23.6202639254712</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.52736410292984</v>
+        <v>12.02440763812989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.27240167677814</v>
+        <v>26.10157053107276</v>
       </c>
       <c r="C14">
-        <v>10.83597082971602</v>
+        <v>18.49121337745889</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.07989700968546</v>
+        <v>18.24668888621245</v>
       </c>
       <c r="F14">
-        <v>37.68289358342628</v>
+        <v>32.96770653324329</v>
       </c>
       <c r="G14">
-        <v>3.603233517243228</v>
+        <v>2.042200845153152</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.365096190681</v>
+        <v>8.294024064092563</v>
       </c>
       <c r="J14">
-        <v>7.501729479374504</v>
+        <v>4.238482743558005</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.65162299504794</v>
+        <v>23.40977661347575</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.54384478171595</v>
+        <v>11.99894741847911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.20144072530891</v>
+        <v>25.96320118375718</v>
       </c>
       <c r="C15">
-        <v>10.78487480259237</v>
+        <v>18.39645056230938</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.07156509727364</v>
+        <v>18.17741656980359</v>
       </c>
       <c r="F15">
-        <v>37.67297424429317</v>
+        <v>32.83453750093893</v>
       </c>
       <c r="G15">
-        <v>3.603446786181239</v>
+        <v>2.0428594529227</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.38151734268565</v>
+        <v>8.335648548497655</v>
       </c>
       <c r="J15">
-        <v>7.503935422914992</v>
+        <v>4.245615619399327</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.61662108995996</v>
+        <v>23.28004956434681</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.55406596632681</v>
+        <v>11.98397604055573</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.78798926399493</v>
+        <v>25.15694679115803</v>
       </c>
       <c r="C16">
-        <v>10.48683796038046</v>
+        <v>17.84465886228414</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.02495482883153</v>
+        <v>17.77949042996581</v>
       </c>
       <c r="F16">
-        <v>37.61953730081235</v>
+        <v>32.07450206914195</v>
       </c>
       <c r="G16">
-        <v>3.604687348544975</v>
+        <v>2.046652195466656</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.47712687368285</v>
+        <v>8.580187902032648</v>
       </c>
       <c r="J16">
-        <v>7.516769567414778</v>
+        <v>4.286719506471982</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.41548392953328</v>
+        <v>22.52434206047389</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.61456919859809</v>
+        <v>11.90754609178778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.52832024709637</v>
+        <v>24.65040235063611</v>
       </c>
       <c r="C17">
-        <v>10.29935230977935</v>
+        <v>17.49832746463611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.99738274730674</v>
+        <v>17.53458386250139</v>
       </c>
       <c r="F17">
-        <v>37.58980290607699</v>
+        <v>31.61112152793682</v>
       </c>
       <c r="G17">
-        <v>3.605464853766228</v>
+        <v>2.048996309581089</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.53712485464174</v>
+        <v>8.735216496695804</v>
       </c>
       <c r="J17">
-        <v>7.524815276421918</v>
+        <v>4.312145948798107</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.29165059846443</v>
+        <v>22.04969406068227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.65340143249264</v>
+        <v>11.86879607683662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37676694862275</v>
+        <v>24.35464633799867</v>
       </c>
       <c r="C18">
-        <v>10.18981284669437</v>
+        <v>17.29624338290911</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.98190247009149</v>
+        <v>17.3934552593649</v>
       </c>
       <c r="F18">
-        <v>37.57382307837128</v>
+        <v>31.34570169224599</v>
       </c>
       <c r="G18">
-        <v>3.605918118406919</v>
+        <v>2.050351302675272</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.5721283920115</v>
+        <v>8.826100251651726</v>
       </c>
       <c r="J18">
-        <v>7.529506447150569</v>
+        <v>4.326850599488377</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.22028385872778</v>
+        <v>21.77260037486221</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.67636455663924</v>
+        <v>11.84940885847372</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.32507779512528</v>
+        <v>24.25375010386227</v>
       </c>
       <c r="C19">
-        <v>10.15243287032542</v>
+        <v>17.22732532941716</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.97672638527946</v>
+        <v>17.34562875636183</v>
       </c>
       <c r="F19">
-        <v>37.56860562014417</v>
+        <v>31.25602965059478</v>
       </c>
       <c r="G19">
-        <v>3.606072628991382</v>
+        <v>2.050811264786355</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.58406489696635</v>
+        <v>8.857155570856982</v>
       </c>
       <c r="J19">
-        <v>7.531105715402591</v>
+        <v>4.331843334562336</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.19609813069402</v>
+        <v>21.67807624132367</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.68424706559113</v>
+        <v>11.84333414274782</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5561904154802</v>
+        <v>24.7047803525273</v>
       </c>
       <c r="C20">
-        <v>10.31948684572211</v>
+        <v>17.5354933006204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.00027873874493</v>
+        <v>17.56068262109267</v>
       </c>
       <c r="F20">
-        <v>37.59285205303449</v>
+        <v>31.66033601150211</v>
       </c>
       <c r="G20">
-        <v>3.605381459725839</v>
+        <v>2.048746086361905</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.53068681377838</v>
+        <v>8.718533229443135</v>
       </c>
       <c r="J20">
-        <v>7.523952229052782</v>
+        <v>4.309431036519776</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.30484795659474</v>
+        <v>22.10064366349228</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.64920263664881</v>
+        <v>11.8726187994297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.30630851394956</v>
+        <v>26.16768760715399</v>
       </c>
       <c r="C21">
-        <v>10.86038014194727</v>
+        <v>18.53650038969118</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.08391238279598</v>
+        <v>18.27988919018603</v>
       </c>
       <c r="F21">
-        <v>37.68771032498935</v>
+        <v>33.03161819993446</v>
       </c>
       <c r="G21">
-        <v>3.603131574017922</v>
+        <v>2.04188534021204</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.3572484478657</v>
+        <v>8.274175514083669</v>
       </c>
       <c r="J21">
-        <v>7.500675074456891</v>
+        <v>4.235066275190416</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.66839679231228</v>
+        <v>23.47176786444315</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.53897767321523</v>
+        <v>12.00629525686865</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.77663274986985</v>
+        <v>27.084989681967</v>
       </c>
       <c r="C22">
-        <v>11.1986063040255</v>
+        <v>19.16522609917945</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.14187768735516</v>
+        <v>18.74706601884062</v>
       </c>
       <c r="F22">
-        <v>37.75963961068038</v>
+        <v>33.93674940362769</v>
       </c>
       <c r="G22">
-        <v>3.60171482547037</v>
+        <v>2.037454085016447</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.24829537875308</v>
+        <v>8.001961233317944</v>
       </c>
       <c r="J22">
-        <v>7.486024451224098</v>
+        <v>4.187119588141977</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.90429074573629</v>
+        <v>24.33210304183203</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.47258493132148</v>
+        <v>12.12134054470756</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.52744916115489</v>
+        <v>26.5989352451024</v>
       </c>
       <c r="C23">
-        <v>11.01949133813798</v>
+        <v>18.83198494341088</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.11064126906272</v>
+        <v>18.49800787824202</v>
       </c>
       <c r="F23">
-        <v>37.72034414982273</v>
+        <v>33.45288459148371</v>
       </c>
       <c r="G23">
-        <v>3.602466074328156</v>
+        <v>2.039814678273035</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.30604328085225</v>
+        <v>8.145419607815567</v>
       </c>
       <c r="J23">
-        <v>7.493792456654111</v>
+        <v>4.212652598332725</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.77856716010966</v>
+        <v>23.87616749641506</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.5075007633862</v>
+        <v>12.05732120362077</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.5435973667416</v>
+        <v>24.68021019380474</v>
       </c>
       <c r="C24">
-        <v>10.31038947608678</v>
+        <v>17.51869988993827</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.99896830379236</v>
+        <v>17.54888438954294</v>
       </c>
       <c r="F24">
-        <v>37.59147006025657</v>
+        <v>31.63808306796944</v>
       </c>
       <c r="G24">
-        <v>3.605419142647833</v>
+        <v>2.048859189368004</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.5335958636621</v>
+        <v>8.726070295503083</v>
       </c>
       <c r="J24">
-        <v>7.524342208430074</v>
+        <v>4.310658177837706</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.29888196571502</v>
+        <v>22.07762247513203</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.65109892561653</v>
+        <v>11.87088156386797</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39862276858874</v>
+        <v>22.44195988900203</v>
       </c>
       <c r="C25">
-        <v>9.480535659224648</v>
+        <v>15.9918514845274</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.89301039956489</v>
+        <v>16.51546246539049</v>
       </c>
       <c r="F25">
-        <v>37.49539064393046</v>
+        <v>29.72361185263414</v>
       </c>
       <c r="G25">
-        <v>3.608836551850973</v>
+        <v>2.058875692340953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.79794904768518</v>
+        <v>9.417080203038877</v>
       </c>
       <c r="J25">
-        <v>7.559724402982244</v>
+        <v>4.419463077664338</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.77635446864871</v>
+        <v>20.12075517204077</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.82996445958117</v>
+        <v>11.77937667045858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.64683381601452</v>
+        <v>24.62202143238334</v>
       </c>
       <c r="C2">
-        <v>14.77222216105877</v>
+        <v>18.91736664812771</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.7499776678745</v>
+        <v>29.41432797507569</v>
       </c>
       <c r="F2">
-        <v>28.3575190322723</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>2.066511174635375</v>
+        <v>12.89594274492669</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.283842754960103</v>
       </c>
       <c r="I2">
-        <v>9.970564479572937</v>
+        <v>3.389776785768363</v>
       </c>
       <c r="J2">
-        <v>4.502536080840986</v>
+        <v>6.647070632431816</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.4537252313715</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.64003022100227</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.79505263204024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>9.701608123897332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33775347198611</v>
+        <v>23.04512809013961</v>
       </c>
       <c r="C3">
-        <v>13.88624558609096</v>
+        <v>17.84303895660239</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.23078599286715</v>
+        <v>27.57782269559153</v>
       </c>
       <c r="F3">
-        <v>27.46287509536485</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.071864731981753</v>
+        <v>12.74499919119531</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.057521449173374</v>
       </c>
       <c r="I3">
-        <v>10.36975955925817</v>
+        <v>3.249891928978125</v>
       </c>
       <c r="J3">
-        <v>4.56082302162465</v>
+        <v>6.744835353552686</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.787693255142644</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.57643497622893</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.8514296190014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>9.810979653118405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48822448209642</v>
+        <v>22.01885221482313</v>
       </c>
       <c r="C4">
-        <v>13.31312886253184</v>
+        <v>17.15408024749699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.91276618130619</v>
+        <v>26.38793222257755</v>
       </c>
       <c r="F4">
-        <v>26.93041192735048</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.075245117538242</v>
+        <v>12.67357243692185</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.913739095446787</v>
       </c>
       <c r="I4">
-        <v>10.62584183399727</v>
+        <v>3.162033685312434</v>
       </c>
       <c r="J4">
-        <v>4.597635450471</v>
+        <v>6.808310504976702</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.997429306313622</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.89474741574298</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.90654385028861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>9.887163985907156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13053199373127</v>
+        <v>21.58588317589734</v>
       </c>
       <c r="C5">
-        <v>13.07230586594363</v>
+        <v>16.87911634019071</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.78352478070551</v>
+        <v>25.88726411268575</v>
       </c>
       <c r="F5">
-        <v>26.71789567685442</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.076646802156941</v>
+        <v>12.6337455752043</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.853819343706959</v>
       </c>
       <c r="I5">
-        <v>10.73284863451182</v>
+        <v>3.126115130097151</v>
       </c>
       <c r="J5">
-        <v>4.612900367967231</v>
+        <v>6.832888938746251</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.08309686446932</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.60995438677429</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.93384932924272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>9.914603326048363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07044309457884</v>
+        <v>21.51291298406957</v>
       </c>
       <c r="C6">
-        <v>13.03187999421293</v>
+        <v>16.84895525221589</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.76209067797202</v>
+        <v>25.80298844044984</v>
       </c>
       <c r="F6">
-        <v>26.68288390935023</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.076881029073975</v>
+        <v>12.60811334342051</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.843678507581135</v>
       </c>
       <c r="I6">
-        <v>10.75077440298458</v>
+        <v>3.120775328237695</v>
       </c>
       <c r="J6">
-        <v>4.615451186532417</v>
+        <v>6.834431201250559</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.09619861546951</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.56224880444727</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.93866710028445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>9.912285635972278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.48344707502924</v>
+        <v>22.01255914943068</v>
       </c>
       <c r="C7">
-        <v>13.30991040679549</v>
+        <v>17.19305431288093</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.91102153045152</v>
+        <v>26.38071988043928</v>
       </c>
       <c r="F7">
-        <v>26.9275274728403</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.075263922471154</v>
+        <v>12.62040709889641</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.912627172354796</v>
       </c>
       <c r="I7">
-        <v>10.62727435774794</v>
+        <v>3.163061871431596</v>
       </c>
       <c r="J7">
-        <v>4.59784024351963</v>
+        <v>6.801561681089716</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.995384465603831</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.89093463747673</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.90689288617059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>9.868372151111572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.20495333473928</v>
+        <v>24.08975894077739</v>
       </c>
       <c r="C8">
-        <v>14.47280559950398</v>
+        <v>18.60591325087139</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.5708946649237</v>
+        <v>28.7934315132084</v>
       </c>
       <c r="F8">
-        <v>28.04568610303772</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.068338150372834</v>
+        <v>12.77082815186534</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.206424669812796</v>
       </c>
       <c r="I8">
-        <v>10.10585640386309</v>
+        <v>3.343618304492407</v>
       </c>
       <c r="J8">
-        <v>4.522424613522242</v>
+        <v>6.670638716479579</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.564131054550353</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.27935161442103</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.81005097982958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>9.711865005429047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.21864720717562</v>
+        <v>27.70379908941362</v>
       </c>
       <c r="C9">
-        <v>16.52097715316074</v>
+        <v>21.06973335500998</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.86456883066225</v>
+        <v>33.03095655536524</v>
       </c>
       <c r="F9">
-        <v>30.36223244946044</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.055463480694897</v>
+        <v>13.33686458676494</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.745724365467856</v>
       </c>
       <c r="I9">
-        <v>9.176759456833336</v>
+        <v>3.680779174059271</v>
       </c>
       <c r="J9">
-        <v>4.382371594178848</v>
+        <v>6.45582723985919</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.759281576641937</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.7683226283578</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.79651730126485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9.518362326393838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.21415152282362</v>
+        <v>30.07694756008839</v>
       </c>
       <c r="C10">
-        <v>17.88378749690569</v>
+        <v>22.71514490959759</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.80739812089037</v>
+        <v>34.96689758365967</v>
       </c>
       <c r="F10">
-        <v>32.127523105325</v>
+        <v>37.72874519847218</v>
       </c>
       <c r="G10">
-        <v>2.046385602783388</v>
+        <v>13.60198092495921</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.084267370697552</v>
       </c>
       <c r="I10">
-        <v>8.562739309289118</v>
+        <v>3.915224424678373</v>
       </c>
       <c r="J10">
-        <v>4.283828826268951</v>
+        <v>6.282785141511284</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.190205558696292</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.5779507766287</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.91236737931171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>9.331720519185339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.07516145545733</v>
+        <v>31.07202518297528</v>
       </c>
       <c r="C11">
-        <v>18.47312559687672</v>
+        <v>23.20769481284312</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.2334457466296</v>
+        <v>28.34269635362906</v>
       </c>
       <c r="F11">
-        <v>32.94222880885695</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>2.042326721871424</v>
+        <v>11.55678718926917</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.439972746774285</v>
       </c>
       <c r="I11">
-        <v>8.301959652802326</v>
+        <v>3.977007663360892</v>
       </c>
       <c r="J11">
-        <v>4.239845903936825</v>
+        <v>5.925323073570937</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.034136595025601</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.38501619268577</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.99604759534385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>8.435374625172138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.39454599886297</v>
+        <v>31.43288340871659</v>
       </c>
       <c r="C12">
-        <v>18.69191883980172</v>
+        <v>23.23860217418662</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.39429279470126</v>
+        <v>22.3841093035917</v>
       </c>
       <c r="F12">
-        <v>33.25227695425551</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.040798835745809</v>
+        <v>9.823586975793713</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.257012838050622</v>
       </c>
       <c r="I12">
-        <v>8.206284873436372</v>
+        <v>3.983478906744473</v>
       </c>
       <c r="J12">
-        <v>4.223303623357223</v>
+        <v>5.681434156598261</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.105543996064716</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.68448894324889</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.03246534861649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7.766339085302337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.3260560093906</v>
+        <v>31.33967527414703</v>
       </c>
       <c r="C13">
-        <v>18.64499193356874</v>
+        <v>22.96904612561316</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.35967423924755</v>
+        <v>16.46604438064116</v>
       </c>
       <c r="F13">
-        <v>33.18543604011586</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>2.041127505013459</v>
+        <v>8.131342957385943</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.291126174557787</v>
       </c>
       <c r="I13">
-        <v>8.22674570784185</v>
+        <v>3.950477807338084</v>
       </c>
       <c r="J13">
-        <v>4.226861407821048</v>
+        <v>5.503396249983649</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.335576856522666</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.6202639254712</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.02440763812989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7.217529045750219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.10157053107276</v>
+        <v>31.06800082710723</v>
       </c>
       <c r="C14">
-        <v>18.49121337745889</v>
+        <v>22.65172434575167</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.24668888621245</v>
+        <v>12.40584066364323</v>
       </c>
       <c r="F14">
-        <v>32.96770653324329</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.042200845153152</v>
+        <v>6.96987449894101</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.099438022186375</v>
       </c>
       <c r="I14">
-        <v>8.294024064092563</v>
+        <v>3.910942270416828</v>
       </c>
       <c r="J14">
-        <v>4.238482743558005</v>
+        <v>5.412237627588517</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.570692325862089</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.40977661347575</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.99894741847911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6.9032055262485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.96320118375718</v>
+        <v>30.90316212512298</v>
       </c>
       <c r="C15">
-        <v>18.39645056230938</v>
+        <v>22.52191563137468</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.17741656980359</v>
+        <v>11.43593126523621</v>
       </c>
       <c r="F15">
-        <v>32.83453750093893</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>2.0428594529227</v>
+        <v>6.690040778423158</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.286162728791052</v>
       </c>
       <c r="I15">
-        <v>8.335648548497655</v>
+        <v>3.893084055396236</v>
       </c>
       <c r="J15">
-        <v>4.245615619399327</v>
+        <v>5.401515839655914</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.65332710554669</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.28004956434681</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.98397604055573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6.84772215843531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.15694679115803</v>
+        <v>29.95036640583787</v>
       </c>
       <c r="C16">
-        <v>17.84465886228414</v>
+        <v>21.9056968480376</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.77949042996581</v>
+        <v>11.3552514043698</v>
       </c>
       <c r="F16">
-        <v>32.07450206914195</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.046652195466656</v>
+        <v>6.870061506355486</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.01539467871317</v>
       </c>
       <c r="I16">
-        <v>8.580187902032648</v>
+        <v>3.801506174100001</v>
       </c>
       <c r="J16">
-        <v>4.286719506471982</v>
+        <v>5.514558532269382</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.814728979477019</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.52434206047389</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.90754609178778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7.052588983689049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.65040235063611</v>
+        <v>29.35394522198547</v>
       </c>
       <c r="C17">
-        <v>17.49832746463611</v>
+        <v>21.60133320694126</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.53458386250139</v>
+        <v>13.48021967329457</v>
       </c>
       <c r="F17">
-        <v>31.61112152793682</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.048996309581089</v>
+        <v>7.607763092708586</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.328745861833395</v>
       </c>
       <c r="I17">
-        <v>8.735216496695804</v>
+        <v>3.751865859353064</v>
       </c>
       <c r="J17">
-        <v>4.312145948798107</v>
+        <v>5.64610077200314</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.818275927713769</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.04969406068227</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.86879607683662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7.361983594330773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.35464633799867</v>
+        <v>29.01199107371102</v>
       </c>
       <c r="C18">
-        <v>17.29624338290911</v>
+        <v>21.51141437959479</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.3934552593649</v>
+        <v>18.04511192115754</v>
       </c>
       <c r="F18">
-        <v>31.34570169224599</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.050351302675272</v>
+        <v>8.959150165291176</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.293726782979824</v>
       </c>
       <c r="I18">
-        <v>8.826100251651726</v>
+        <v>3.733197468384253</v>
       </c>
       <c r="J18">
-        <v>4.326850599488377</v>
+        <v>5.82082922652118</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.709942606258391</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.77260037486221</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.84940885847372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7.833023251500262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.25375010386227</v>
+        <v>28.90653247490256</v>
       </c>
       <c r="C19">
-        <v>17.22732532941716</v>
+        <v>21.67185061974502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.34562875636183</v>
+        <v>24.3155425822761</v>
       </c>
       <c r="F19">
-        <v>31.25602965059478</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.050811264786355</v>
+        <v>10.65682026493702</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.310872278282104</v>
       </c>
       <c r="I19">
-        <v>8.857155570856982</v>
+        <v>3.751266593435278</v>
       </c>
       <c r="J19">
-        <v>4.331843334562336</v>
+        <v>6.021117498202236</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.577913024262882</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.67807624132367</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.84333414274782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8.41148655947848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.7047803525273</v>
+        <v>29.47130378269115</v>
       </c>
       <c r="C20">
-        <v>17.5354933006204</v>
+        <v>22.39816896415479</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.56068262109267</v>
+        <v>34.42957951887588</v>
       </c>
       <c r="F20">
-        <v>31.66033601150211</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.048746086361905</v>
+        <v>13.36292929219797</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.993503313285981</v>
       </c>
       <c r="I20">
-        <v>8.718533229443135</v>
+        <v>3.860476336691725</v>
       </c>
       <c r="J20">
-        <v>4.309431036519776</v>
+        <v>6.303119894853914</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.333297393748646</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.10064366349228</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.8726187994297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9.312512287948909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.16768760715399</v>
+        <v>31.20985971075842</v>
       </c>
       <c r="C21">
-        <v>18.53650038969118</v>
+        <v>23.63538755046156</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.27988919018603</v>
+        <v>37.18818965734832</v>
       </c>
       <c r="F21">
-        <v>33.03161819993446</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.04188534021204</v>
+        <v>14.02497164173719</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.304093515141337</v>
       </c>
       <c r="I21">
-        <v>8.274175514083669</v>
+        <v>4.045917282295075</v>
       </c>
       <c r="J21">
-        <v>4.235066275190416</v>
+        <v>6.232269391299382</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.899104635268476</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.47176786444315</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.00629525686865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9.348051716430181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.084989681967</v>
+        <v>32.29496408529672</v>
       </c>
       <c r="C22">
-        <v>19.16522609917945</v>
+        <v>24.35892221893861</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.74706601884062</v>
+        <v>38.48373849586704</v>
       </c>
       <c r="F22">
-        <v>33.93674940362769</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.037454085016447</v>
+        <v>14.41261569325482</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.48476226591872</v>
       </c>
       <c r="I22">
-        <v>8.001961233317944</v>
+        <v>4.160218758822015</v>
       </c>
       <c r="J22">
-        <v>4.187119588141977</v>
+        <v>6.183889288909839</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.62233113103817</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.33210304183203</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.12134054470756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.36289408697067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.5989352451024</v>
+        <v>31.72074660535925</v>
       </c>
       <c r="C23">
-        <v>18.83198494341088</v>
+        <v>23.93725320085774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.49800787824202</v>
+        <v>37.79755622348743</v>
       </c>
       <c r="F23">
-        <v>33.45288459148371</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.039814678273035</v>
+        <v>14.25774321878694</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.388882657302244</v>
       </c>
       <c r="I23">
-        <v>8.145419607815567</v>
+        <v>4.096748832661553</v>
       </c>
       <c r="J23">
-        <v>4.212652598332725</v>
+        <v>6.217804051002287</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.771622431606969</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.87616749641506</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.05732120362077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>9.376381453660009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.68021019380474</v>
+        <v>29.44510494187812</v>
       </c>
       <c r="C24">
-        <v>17.51869988993827</v>
+        <v>22.34192321085606</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.54888438954294</v>
+        <v>35.09008229523791</v>
       </c>
       <c r="F24">
-        <v>31.63808306796944</v>
+        <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>2.048859189368004</v>
+        <v>13.63544145476533</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.018473795692281</v>
       </c>
       <c r="I24">
-        <v>8.726070295503083</v>
+        <v>3.857680335919015</v>
       </c>
       <c r="J24">
-        <v>4.310658177837706</v>
+        <v>6.34271535102319</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.340529031121308</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.07762247513203</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.87088156386797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9.420627782475725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44195988900203</v>
+        <v>26.7745328168516</v>
       </c>
       <c r="C25">
-        <v>15.9918514845274</v>
+        <v>20.49527714891081</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.51546246539049</v>
+        <v>31.93680411675032</v>
       </c>
       <c r="F25">
-        <v>29.72361185263414</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.058875692340953</v>
+        <v>13.07302268548926</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.603245592167074</v>
       </c>
       <c r="I25">
-        <v>9.417080203038877</v>
+        <v>3.594220711608854</v>
       </c>
       <c r="J25">
-        <v>4.419463077664338</v>
+        <v>6.497607402731924</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8.969158565769996</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.12075517204077</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.77937667045858</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9.526254720894647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.62202143238334</v>
+        <v>24.60778822954056</v>
       </c>
       <c r="C2">
-        <v>18.91736664812771</v>
+        <v>18.71472933202097</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.41432797507569</v>
+        <v>29.37418430540692</v>
       </c>
       <c r="F2">
-        <v>30.27884324296192</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>12.89594274492669</v>
+        <v>12.39946871560829</v>
       </c>
       <c r="H2">
-        <v>3.283842754960103</v>
+        <v>3.259214299691601</v>
       </c>
       <c r="I2">
-        <v>3.389776785768363</v>
+        <v>3.363714410517984</v>
       </c>
       <c r="J2">
-        <v>6.647070632431816</v>
+        <v>7.457471309897409</v>
       </c>
       <c r="K2">
-        <v>9.4537252313715</v>
+        <v>9.535924170837434</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.196988044699955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.940269674768774</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.701608123897332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>9.877161674886816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.04512809013961</v>
+        <v>23.03913086617669</v>
       </c>
       <c r="C3">
-        <v>17.84303895660239</v>
+        <v>17.57752722449071</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.57782269559153</v>
+        <v>27.54696096094903</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326741</v>
       </c>
       <c r="G3">
-        <v>12.74499919119531</v>
+        <v>12.24222233736878</v>
       </c>
       <c r="H3">
-        <v>3.057521449173374</v>
+        <v>3.0389786072856</v>
       </c>
       <c r="I3">
-        <v>3.249891928978125</v>
+        <v>3.239601034513441</v>
       </c>
       <c r="J3">
-        <v>6.744835353552686</v>
+        <v>7.521612466469864</v>
       </c>
       <c r="K3">
-        <v>9.787693255142644</v>
+        <v>9.840145348516877</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.387862007713894</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.286545119143079</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.810979653118405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>9.986303913468006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.01885221482313</v>
+        <v>22.01821246129832</v>
       </c>
       <c r="C4">
-        <v>17.15408024749699</v>
+        <v>16.84748827199465</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.38793222257755</v>
+        <v>26.36302117607015</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>26.79314218379238</v>
       </c>
       <c r="G4">
-        <v>12.67357243692185</v>
+        <v>12.16616243820692</v>
       </c>
       <c r="H4">
-        <v>2.913739095446787</v>
+        <v>2.899007494480421</v>
       </c>
       <c r="I4">
-        <v>3.162033685312434</v>
+        <v>3.161777003207875</v>
       </c>
       <c r="J4">
-        <v>6.808310504976702</v>
+        <v>7.562566251028012</v>
       </c>
       <c r="K4">
-        <v>9.997429306313622</v>
+        <v>10.0314330778896</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.517670613846478</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.51130186250345</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9.887163985907156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.06026864949129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.58588317589734</v>
+        <v>21.58751373610782</v>
       </c>
       <c r="C5">
-        <v>16.87911634019071</v>
+        <v>16.55477515246043</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.88726411268575</v>
+        <v>25.8648518075184</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>12.6337455752043</v>
+        <v>12.12385131937947</v>
       </c>
       <c r="H5">
-        <v>2.853819343706959</v>
+        <v>2.840661352695286</v>
       </c>
       <c r="I5">
-        <v>3.126115130097151</v>
+        <v>3.130272631851822</v>
       </c>
       <c r="J5">
-        <v>6.832888938746251</v>
+        <v>7.577629409032505</v>
       </c>
       <c r="K5">
-        <v>10.08309686446932</v>
+        <v>10.10925186816678</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.570823306606959</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.607675551732723</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9.914603326048363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.08642705842255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.51291298406957</v>
+        <v>21.51492515931254</v>
       </c>
       <c r="C6">
-        <v>16.84895525221589</v>
+        <v>16.52113152318774</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.80298844044984</v>
+        <v>25.78099718961028</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>12.60811334342051</v>
+        <v>12.09734188928732</v>
       </c>
       <c r="H6">
-        <v>2.843678507581135</v>
+        <v>2.830783518907994</v>
       </c>
       <c r="I6">
-        <v>3.120775328237695</v>
+        <v>3.125995514658011</v>
       </c>
       <c r="J6">
-        <v>6.834431201250559</v>
+        <v>7.577700232220831</v>
       </c>
       <c r="K6">
-        <v>10.09619861546951</v>
+        <v>10.1207111079296</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.576396605400179</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.626059861854995</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9.912285635972278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.08401057782325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.01255914943068</v>
+        <v>22.01168013201232</v>
       </c>
       <c r="C7">
-        <v>17.19305431288093</v>
+        <v>16.87816663126605</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.38071988043928</v>
+        <v>26.35523170917064</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>12.62040709889641</v>
+        <v>12.1966740009051</v>
       </c>
       <c r="H7">
-        <v>2.912627172354796</v>
+        <v>2.897553682497724</v>
       </c>
       <c r="I7">
-        <v>3.163061871431596</v>
+        <v>3.163202157863011</v>
       </c>
       <c r="J7">
-        <v>6.801561681089716</v>
+        <v>7.526780863497542</v>
       </c>
       <c r="K7">
-        <v>9.995384465603831</v>
+        <v>10.0273954170533</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.506696961841318</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.52031937883829</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9.868372151111572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.03131793849719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.08975894077739</v>
+        <v>24.07751467188422</v>
       </c>
       <c r="C8">
-        <v>18.60591325087139</v>
+        <v>18.359699569236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.7934315132084</v>
+        <v>28.75461543713353</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882484</v>
       </c>
       <c r="G8">
-        <v>12.77082815186534</v>
+        <v>12.54993245019448</v>
       </c>
       <c r="H8">
-        <v>3.206424669812796</v>
+        <v>3.182761283270331</v>
       </c>
       <c r="I8">
-        <v>3.343618304492407</v>
+        <v>3.322435015344084</v>
       </c>
       <c r="J8">
-        <v>6.670638716479579</v>
+        <v>7.37524156311953</v>
       </c>
       <c r="K8">
-        <v>9.564131054550353</v>
+        <v>9.632743658672256</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.244682435087274</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.066843497871931</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9.711865005429047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9.853413344246627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.70379908941362</v>
+        <v>27.67213272068913</v>
       </c>
       <c r="C9">
-        <v>21.06973335500998</v>
+        <v>20.96476025379242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.03095655536524</v>
+        <v>32.96981656414263</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146112</v>
       </c>
       <c r="G9">
-        <v>13.33686458676494</v>
+        <v>13.19084885449167</v>
       </c>
       <c r="H9">
-        <v>3.745724365467856</v>
+        <v>3.707057808161327</v>
       </c>
       <c r="I9">
-        <v>3.680779174059271</v>
+        <v>3.620957029362605</v>
       </c>
       <c r="J9">
-        <v>6.45582723985919</v>
+        <v>7.204573798651878</v>
       </c>
       <c r="K9">
-        <v>8.759281576641937</v>
+        <v>8.903267982363539</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.855901829015158</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.263139943460613</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9.518362326393838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>9.637075884013345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.07694756008839</v>
+        <v>30.03090023646358</v>
       </c>
       <c r="C10">
-        <v>22.71514490959759</v>
+        <v>22.65622653668883</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>34.96689758365967</v>
+        <v>34.88752913679267</v>
       </c>
       <c r="F10">
-        <v>37.72874519847218</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>13.60198092495921</v>
+        <v>13.96721221820746</v>
       </c>
       <c r="H10">
-        <v>4.084267370697552</v>
+        <v>4.033560104798617</v>
       </c>
       <c r="I10">
-        <v>3.915224424678373</v>
+        <v>3.827449947467983</v>
       </c>
       <c r="J10">
-        <v>6.282785141511284</v>
+        <v>6.903127947154059</v>
       </c>
       <c r="K10">
-        <v>8.190205558696292</v>
+        <v>8.391017293338768</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.640397847578932</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.740100027460683</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.331720519185339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>9.369274195732903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.07202518297528</v>
+        <v>31.02073178131983</v>
       </c>
       <c r="C11">
-        <v>23.20769481284312</v>
+        <v>22.99540844167794</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.34269635362906</v>
+        <v>28.25035960133815</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>11.55678718926917</v>
+        <v>13.03243880709868</v>
       </c>
       <c r="H11">
-        <v>4.439972746774285</v>
+        <v>4.390426845086758</v>
       </c>
       <c r="I11">
-        <v>3.977007663360892</v>
+        <v>3.87984676415165</v>
       </c>
       <c r="J11">
-        <v>5.925323073570937</v>
+        <v>6.402817350682331</v>
       </c>
       <c r="K11">
-        <v>8.034136595025601</v>
+        <v>8.28280269105332</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.648433631820035</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.58088290339828</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.435374625172138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>8.427814834605602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.43288340871659</v>
+        <v>31.38040964325659</v>
       </c>
       <c r="C12">
-        <v>23.23860217418662</v>
+        <v>22.90695658913395</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.3841093035917</v>
+        <v>22.28097683016706</v>
       </c>
       <c r="F12">
         <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>9.823586975793713</v>
+        <v>11.84749607373754</v>
       </c>
       <c r="H12">
-        <v>5.257012838050622</v>
+        <v>5.21575262857668</v>
       </c>
       <c r="I12">
-        <v>3.983478906744473</v>
+        <v>3.883311138157486</v>
       </c>
       <c r="J12">
-        <v>5.681434156598261</v>
+        <v>6.219736437744273</v>
       </c>
       <c r="K12">
-        <v>8.105543996064716</v>
+        <v>8.373045704152588</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.747206909961047</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.632491990595199</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7.766339085302337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>7.784010443274211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.33967527414703</v>
+        <v>31.28935601566682</v>
       </c>
       <c r="C13">
-        <v>22.96904612561316</v>
+        <v>22.54522040900166</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.46604438064116</v>
+        <v>16.35001488359862</v>
       </c>
       <c r="F13">
         <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>8.131342957385943</v>
+        <v>10.08915085877161</v>
       </c>
       <c r="H13">
-        <v>6.291126174557787</v>
+        <v>6.259148476710222</v>
       </c>
       <c r="I13">
-        <v>3.950477807338084</v>
+        <v>3.853977133909133</v>
       </c>
       <c r="J13">
-        <v>5.503396249983649</v>
+        <v>6.18584688828193</v>
       </c>
       <c r="K13">
-        <v>8.335576856522666</v>
+        <v>8.574956821043923</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.869127006497934</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.834986406580029</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7.217529045750219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7.326548288788914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.06800082710723</v>
+        <v>31.02060508654664</v>
       </c>
       <c r="C14">
-        <v>22.65172434575167</v>
+        <v>22.17365550829878</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.40584066364323</v>
+        <v>12.27480577869688</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>6.96987449894101</v>
+        <v>8.583943440996709</v>
       </c>
       <c r="H14">
-        <v>7.099438022186375</v>
+        <v>7.073270272878851</v>
       </c>
       <c r="I14">
-        <v>3.910942270416828</v>
+        <v>3.820182426871221</v>
       </c>
       <c r="J14">
-        <v>5.412237627588517</v>
+        <v>6.197190576253415</v>
       </c>
       <c r="K14">
-        <v>8.570692325862089</v>
+        <v>8.76022601959194</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.955813538834311</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.04634125712212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6.9032055262485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7.091398064285636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.90316212512298</v>
+        <v>30.85721604332944</v>
       </c>
       <c r="C15">
-        <v>22.52191563137468</v>
+        <v>22.03479128135538</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.43593126523621</v>
+        <v>11.30125536701282</v>
       </c>
       <c r="F15">
         <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>6.690040778423158</v>
+        <v>8.096960532551705</v>
       </c>
       <c r="H15">
-        <v>7.286162728791052</v>
+        <v>7.261581666710367</v>
       </c>
       <c r="I15">
-        <v>3.893084055396236</v>
+        <v>3.805623564571992</v>
       </c>
       <c r="J15">
-        <v>5.401515839655914</v>
+        <v>6.213718660172313</v>
       </c>
       <c r="K15">
-        <v>8.65332710554669</v>
+        <v>8.820309773999686</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.974214475811111</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.123179379357962</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6.84772215843531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.061671873316426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95036640583787</v>
+        <v>29.91154354658904</v>
       </c>
       <c r="C16">
-        <v>21.9056968480376</v>
+        <v>21.45786235576045</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.3552514043698</v>
+        <v>11.23776772729241</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>6.870061506355486</v>
+        <v>7.332087232790782</v>
       </c>
       <c r="H16">
-        <v>7.01539467871317</v>
+        <v>6.994077987995337</v>
       </c>
       <c r="I16">
-        <v>3.801506174100001</v>
+        <v>3.728768052716001</v>
       </c>
       <c r="J16">
-        <v>5.514558532269382</v>
+        <v>6.391049940014534</v>
       </c>
       <c r="K16">
-        <v>8.814728979477019</v>
+        <v>8.91518535117514</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.928037688608612</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.301592839703501</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.052588983689049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>7.330802004230308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.35394522198547</v>
+        <v>29.31885305459453</v>
       </c>
       <c r="C17">
-        <v>21.60133320694126</v>
+        <v>21.20605438865402</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.48021967329457</v>
+        <v>13.38334314303991</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>7.607763092708586</v>
+        <v>7.682411367925413</v>
       </c>
       <c r="H17">
-        <v>6.328745861833395</v>
+        <v>6.307262906261426</v>
       </c>
       <c r="I17">
-        <v>3.751865859353064</v>
+        <v>3.687047802365036</v>
       </c>
       <c r="J17">
-        <v>5.64610077200314</v>
+        <v>6.55273108392857</v>
       </c>
       <c r="K17">
-        <v>8.818275927713769</v>
+        <v>8.911247353673444</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.872292836321352</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.333823563561405</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7.361983594330773</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>7.65236689004989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.01199107371102</v>
+        <v>28.97823944163033</v>
       </c>
       <c r="C18">
-        <v>21.51141437959479</v>
+        <v>21.19864675131462</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.04511192115754</v>
+        <v>17.96587615185507</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>8.959150165291176</v>
+        <v>8.86516033827564</v>
       </c>
       <c r="H18">
-        <v>5.293726782979824</v>
+        <v>5.268458472176294</v>
       </c>
       <c r="I18">
-        <v>3.733197468384253</v>
+        <v>3.670526594737916</v>
       </c>
       <c r="J18">
-        <v>5.82082922652118</v>
+        <v>6.728131253700696</v>
       </c>
       <c r="K18">
-        <v>8.709942606258391</v>
+        <v>8.829541782984602</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.80695380862951</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.24775497575673</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7.833023251500262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.105515857061732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.90653247490256</v>
+        <v>28.87192035669578</v>
       </c>
       <c r="C19">
-        <v>21.67185061974502</v>
+        <v>21.46118902055778</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.3155425822761</v>
+        <v>24.24531080119263</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>10.65682026493702</v>
+        <v>10.47465132274684</v>
       </c>
       <c r="H19">
-        <v>4.310872278282104</v>
+        <v>4.277747392418776</v>
       </c>
       <c r="I19">
-        <v>3.751266593435278</v>
+        <v>3.687765856511728</v>
       </c>
       <c r="J19">
-        <v>6.021117498202236</v>
+        <v>6.906805191050837</v>
       </c>
       <c r="K19">
-        <v>8.577913024262882</v>
+        <v>8.730013399030808</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.75839221384164</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.12071059896421</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8.41148655947848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8.640239373744649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.47130378269115</v>
+        <v>29.42971711318127</v>
       </c>
       <c r="C20">
-        <v>22.39816896415479</v>
+        <v>22.34240142031489</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>34.42957951887588</v>
+        <v>34.35655002302344</v>
       </c>
       <c r="F20">
         <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>13.36292929219797</v>
+        <v>13.31987477733664</v>
       </c>
       <c r="H20">
-        <v>3.993503313285981</v>
+        <v>3.946955959979256</v>
       </c>
       <c r="I20">
-        <v>3.860476336691725</v>
+        <v>3.784216240263403</v>
       </c>
       <c r="J20">
-        <v>6.303119894853914</v>
+        <v>7.057524837113974</v>
       </c>
       <c r="K20">
-        <v>8.333297393748646</v>
+        <v>8.520170322154632</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.687780029531107</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.871343539754483</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9.312512287948909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9.414223856024424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.20985971075842</v>
+        <v>31.15342735869844</v>
       </c>
       <c r="C21">
-        <v>23.63538755046156</v>
+        <v>23.53815984842264</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.18818965734832</v>
+        <v>37.09345728403656</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>14.02497164173719</v>
+        <v>15.78853479246703</v>
       </c>
       <c r="H21">
-        <v>4.304093515141337</v>
+        <v>4.24288367943026</v>
       </c>
       <c r="I21">
-        <v>4.045917282295075</v>
+        <v>3.940611859660207</v>
       </c>
       <c r="J21">
-        <v>6.232269391299382</v>
+        <v>6.44801737677714</v>
       </c>
       <c r="K21">
-        <v>7.899104635268476</v>
+        <v>8.133754605871735</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.559008434803372</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.471245262968663</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9.348051716430181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9.163763739260476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.29496408529672</v>
+        <v>32.22911873070712</v>
       </c>
       <c r="C22">
-        <v>24.35892221893861</v>
+        <v>24.22348801931899</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38.48373849586704</v>
+        <v>38.37520863361058</v>
       </c>
       <c r="F22">
         <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>14.41261569325482</v>
+        <v>17.42901727027882</v>
       </c>
       <c r="H22">
-        <v>4.48476226591872</v>
+        <v>4.414336335412439</v>
       </c>
       <c r="I22">
-        <v>4.160218758822015</v>
+        <v>4.035514184272341</v>
       </c>
       <c r="J22">
-        <v>6.183889288909839</v>
+        <v>6.136109833140712</v>
       </c>
       <c r="K22">
-        <v>7.62233113103817</v>
+        <v>7.894106215945864</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.501396692854463</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.217932633346828</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9.36289408697067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>8.972470987528522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.72074660535925</v>
+        <v>31.66030942065036</v>
       </c>
       <c r="C23">
-        <v>23.93725320085774</v>
+        <v>23.83654631744587</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>37.79755622348743</v>
+        <v>37.69726025285733</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>14.25774321878694</v>
+        <v>16.40778828165646</v>
       </c>
       <c r="H23">
-        <v>4.388882657302244</v>
+        <v>4.323946162600891</v>
       </c>
       <c r="I23">
-        <v>4.096748832661553</v>
+        <v>3.982000471119183</v>
       </c>
       <c r="J23">
-        <v>6.217804051002287</v>
+        <v>6.333252772521656</v>
       </c>
       <c r="K23">
-        <v>7.771622431606969</v>
+        <v>8.019512144042233</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.526369826046363</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.357333677750364</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9.376381453660009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>9.123235290069989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.44510494187812</v>
+        <v>29.40342912602121</v>
       </c>
       <c r="C24">
-        <v>22.34192321085606</v>
+        <v>22.29914378216419</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>35.09008229523791</v>
+        <v>35.01719978291851</v>
       </c>
       <c r="F24">
         <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>13.63544145476533</v>
+        <v>13.56507913538533</v>
       </c>
       <c r="H24">
-        <v>4.018473795692281</v>
+        <v>3.971827476564407</v>
       </c>
       <c r="I24">
-        <v>3.857680335919015</v>
+        <v>3.779493460070222</v>
       </c>
       <c r="J24">
-        <v>6.34271535102319</v>
+        <v>7.094849905561946</v>
       </c>
       <c r="K24">
-        <v>8.340529031121308</v>
+        <v>8.525506316055068</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.691522808908534</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.876916678396498</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9.420627782475725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>9.515286326898771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.7745328168516</v>
+        <v>26.74828642423388</v>
       </c>
       <c r="C25">
-        <v>20.49527714891081</v>
+        <v>20.36033023394597</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>31.93680411675032</v>
+        <v>31.88229274342259</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>13.07302268548926</v>
+        <v>12.79268884409559</v>
       </c>
       <c r="H25">
-        <v>3.603245592167074</v>
+        <v>3.569035581898007</v>
       </c>
       <c r="I25">
-        <v>3.594220711608854</v>
+        <v>3.546709331592919</v>
       </c>
       <c r="J25">
-        <v>6.497607402731924</v>
+        <v>7.278450034579456</v>
       </c>
       <c r="K25">
-        <v>8.969158565769996</v>
+        <v>9.093535170883429</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.944929345224176</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.469730426019666</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9.526254720894647</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>9.670145430175985</v>
       </c>
     </row>
   </sheetData>
